--- a/cmake-build-debug/A.xlsx
+++ b/cmake-build-debug/A.xlsx
@@ -76,6 +76,344 @@
         <x:v>SC</x:v>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>58.3353783819875</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>61.0043997138332</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>59.6698890479103</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:57:14 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>64.1535622047801</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>63.4287958749701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:57:13 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:57:11 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>64.1535622047801</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>63.4287958749701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:57:03 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>58.3353783819875</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>60.5197039635738</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:57:03 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>64.1535622047801</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>63.4287958749701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:57:02 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:56:59 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>64.1535622047801</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>63.4287958749701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:56:59 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>64.1535622047801</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>63.4287958749701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:56:58 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>56.7978904096874</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>59.7509599774237</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:56:58 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>64.1535622047801</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>63.4287958749701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:56:56 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>64.1535622047801</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>62.7040295451601</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>63.4287958749701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:56:56 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>64.1535622047801</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>64.1535622047801</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>64.1535622047801</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/01/2009 12:56:55 ق.ظ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>-1</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>